--- a/mapping/BAO_CAO.xlsx
+++ b/mapping/BAO_CAO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
   <si>
     <t>BAO_IRI</t>
   </si>
@@ -28,6 +28,12 @@
     <t>CAO_DESC</t>
   </si>
   <si>
+    <t>CAO_DEF</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_23367</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/PATO_0000918</t>
   </si>
   <si>
@@ -43,12 +49,12 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_33232</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_24432</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_51086</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_24432</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_33284</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_33893</t>
   </si>
   <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0003116</t>
+  </si>
+  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0002929</t>
   </si>
   <si>
@@ -73,9 +82,6 @@
     <t>http://www.bioassayontology.org/bao#BAO_0003043</t>
   </si>
   <si>
-    <t>http://www.bioassayontology.org/bao#BAO_0003116</t>
-  </si>
-  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0000531</t>
   </si>
   <si>
@@ -100,6 +106,9 @@
     <t>http://www.bioassayontology.org/bao#BAO_0110002</t>
   </si>
   <si>
+    <t>{'iri': 'http://purl.obolibrary.org/obo/CHEBI_23367'}</t>
+  </si>
+  <si>
     <t>{'iri': 'http://purl.obolibrary.org/obo/PATO_0000918'}</t>
   </si>
   <si>
@@ -115,12 +124,12 @@
     <t>{'iri': 'http://purl.obolibrary.org/obo/CHEBI_33232'}</t>
   </si>
   <si>
+    <t>{'iri': 'http://purl.obolibrary.org/obo/CHEBI_24432'}</t>
+  </si>
+  <si>
     <t>{'iri': 'http://purl.obolibrary.org/obo/CHEBI_51086'}</t>
   </si>
   <si>
-    <t>{'iri': 'http://purl.obolibrary.org/obo/CHEBI_24432'}</t>
-  </si>
-  <si>
     <t>{'iri': 'http://purl.obolibrary.org/obo/CHEBI_33284'}</t>
   </si>
   <si>
@@ -136,6 +145,9 @@
     <t>{'label': 'reagent', 'prefLabel': None, 'altLabel': None, 'name': 'CHEBI_33893'}</t>
   </si>
   <si>
+    <t>{'label': 'material entity', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0003116'}</t>
+  </si>
+  <si>
     <t>{'label': 'role', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0002929'}</t>
   </si>
   <si>
@@ -145,9 +157,6 @@
     <t>{'label': 'molecular entity', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0003043'}</t>
   </si>
   <si>
-    <t>{'label': 'material entity', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0003116'}</t>
-  </si>
-  <si>
     <t>{'label': 'coefficient of variation', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0000531'}</t>
   </si>
   <si>
@@ -175,18 +184,15 @@
     <t>http://purl.obolibrary.org/obo/OBI_0000086</t>
   </si>
   <si>
+    <t>http://www.ifomis.org/bfo/1.1/snap#MaterialEntity</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_50906</t>
   </si>
   <si>
     <t>http://www.ifomis.org/bfo/1.1/snap#Quality</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_23367</t>
-  </si>
-  <si>
-    <t>http://www.ifomis.org/bfo/1.1/snap#MaterialEntity</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/STATO_0000236</t>
   </si>
   <si>
@@ -205,6 +211,9 @@
     <t>{'altLabel': 'reagent'}</t>
   </si>
   <si>
+    <t>{'label': 'material entity'}</t>
+  </si>
+  <si>
     <t>{'label': 'role'}</t>
   </si>
   <si>
@@ -214,9 +223,6 @@
     <t>{'label': 'molecular entity', 'prefLabel': 'molecular entity'}</t>
   </si>
   <si>
-    <t>{'label': 'material entity'}</t>
-  </si>
-  <si>
     <t>{'label': 'coefficient of variation'}</t>
   </si>
   <si>
@@ -239,6 +245,24 @@
   </si>
   <si>
     <t>{'label': 'biological role'}</t>
+  </si>
+  <si>
+    <t>['Any constitutionally or isotopically distinct atom, molecule, ion, ion pair, radical, radical ion, complex, conformer etc., identifiable as a separately distinguishable entity. [IUPAC]']</t>
+  </si>
+  <si>
+    <t>["A 3-D extent quality inhering in a bearer by virtue of the bearer's amount of 3-dimensional space it occupies."]</t>
+  </si>
+  <si>
+    <t>['A 1-D extent quality which is equal to the distance between two points. [PATO]']</t>
+  </si>
+  <si>
+    <t>['A 1-D extent quality which is equal to the distance from one side of an object to another side which is opposite. [PATO]']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['A role inhering in a biological or chemical entity that is intended to be applied in a scientific technique to participate (or have molecular components that participate) in a chemical reaction that facilitates the generation of data about some entity distinct from the bearer, or the generation of some specified material output distinct from the bearer. [OBI]']</t>
   </si>
 </sst>
 </file>
@@ -609,13 +633,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,413 +652,508 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>70</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>73</v>
+      </c>
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>74</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="F25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1063,30 +1182,32 @@
     <hyperlink ref="D12" r:id="rId22"/>
     <hyperlink ref="B13" r:id="rId23"/>
     <hyperlink ref="D13" r:id="rId24"/>
-    <hyperlink ref="B14" r:id="rId25" location="BAO_0002929"/>
+    <hyperlink ref="B14" r:id="rId25"/>
     <hyperlink ref="D14" r:id="rId26"/>
-    <hyperlink ref="B15" r:id="rId27" location="BAO_0002928"/>
-    <hyperlink ref="D15" r:id="rId28" location="Quality"/>
-    <hyperlink ref="B16" r:id="rId29" location="BAO_0003043"/>
+    <hyperlink ref="B15" r:id="rId27" location="BAO_0003116"/>
+    <hyperlink ref="D15" r:id="rId28" location="MaterialEntity"/>
+    <hyperlink ref="B16" r:id="rId29" location="BAO_0002929"/>
     <hyperlink ref="D16" r:id="rId30"/>
-    <hyperlink ref="B17" r:id="rId31" location="BAO_0003116"/>
-    <hyperlink ref="D17" r:id="rId32" location="MaterialEntity"/>
-    <hyperlink ref="B18" r:id="rId33" location="BAO_0000531"/>
+    <hyperlink ref="B17" r:id="rId31" location="BAO_0002928"/>
+    <hyperlink ref="D17" r:id="rId32" location="Quality"/>
+    <hyperlink ref="B18" r:id="rId33" location="BAO_0003043"/>
     <hyperlink ref="D18" r:id="rId34"/>
-    <hyperlink ref="B19" r:id="rId35" location="BAO_0002934"/>
+    <hyperlink ref="B19" r:id="rId35" location="BAO_0000531"/>
     <hyperlink ref="D19" r:id="rId36"/>
-    <hyperlink ref="B20" r:id="rId37" location="BAO_0002173"/>
+    <hyperlink ref="B20" r:id="rId37" location="BAO_0002934"/>
     <hyperlink ref="D20" r:id="rId38"/>
-    <hyperlink ref="B21" r:id="rId39" location="BAO_0002176"/>
+    <hyperlink ref="B21" r:id="rId39" location="BAO_0002173"/>
     <hyperlink ref="D21" r:id="rId40"/>
-    <hyperlink ref="B22" r:id="rId41" location="BAO_0002454"/>
+    <hyperlink ref="B22" r:id="rId41" location="BAO_0002176"/>
     <hyperlink ref="D22" r:id="rId42"/>
-    <hyperlink ref="B23" r:id="rId43" location="BAO_0110000"/>
+    <hyperlink ref="B23" r:id="rId43" location="BAO_0002454"/>
     <hyperlink ref="D23" r:id="rId44"/>
-    <hyperlink ref="B24" r:id="rId45" location="BAO_0110001"/>
+    <hyperlink ref="B24" r:id="rId45" location="BAO_0110000"/>
     <hyperlink ref="D24" r:id="rId46"/>
-    <hyperlink ref="B25" r:id="rId47" location="BAO_0110002"/>
+    <hyperlink ref="B25" r:id="rId47" location="BAO_0110001"/>
     <hyperlink ref="D25" r:id="rId48"/>
+    <hyperlink ref="B26" r:id="rId49" location="BAO_0110002"/>
+    <hyperlink ref="D26" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
